--- a/biology/Zoologie/Aye-aye/Aye-aye.xlsx
+++ b/biology/Zoologie/Aye-aye/Aye-aye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daubentonia madagascariensis
-L'aye-aye[1] (Daubentonia madagascariensis) est une espèce de primate strepsirrhinien qui vit à Madagascar. C'est la seule espèce du genre Daubentonia, lui-même seul membre de la famille des daubentonidés. Elle est considérée comme vulnérable à l'extinction selon l'Union internationale pour la conservation de la nature (UICN).
+L'aye-aye (Daubentonia madagascariensis) est une espèce de primate strepsirrhinien qui vit à Madagascar. C'est la seule espèce du genre Daubentonia, lui-même seul membre de la famille des daubentonidés. Elle est considérée comme vulnérable à l'extinction selon l'Union internationale pour la conservation de la nature (UICN).
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aye-aye est un primate très particulier qui a des caractères dérivés nombreux et assez singuliers. Ses incisives rappellent celles des rongeurs, ses oreilles celles des chauve-souris et sa queue celle des écureuils. Enfin, il possède une adaptation particulière, le troisième doigt de la main est extrêmement allongé. Il a un mode de vie arboricole, ce qui le fait occuper une niche écologique voisine de celles des pics ou des écureuils sur les autres continents comme l'Europe.
-Il mesure de 75 à 90 cm de long – dont 44 à 53 pour la queue – et pèse de 2 à 3 kg. Les deux sexes sont apparemment impossibles à identifier[2].
+Il mesure de 75 à 90 cm de long – dont 44 à 53 pour la queue – et pèse de 2 à 3 kg. Les deux sexes sont apparemment impossibles à identifier.
 Il est insectivore et frugivore. Il déloge des larves d'insectes xylophages qu'il détecte en tapotant les troncs avec son doigt spécialisé et auxquelles il accède en élargissant les orifices en déchiquetant les couches supérieures avec ses incisives et qu'il déniche finalement avec son grand doigt muni d'une griffe. À d'autres périodes de l'année, c'est pour extraire le cœur spongieux des gales sur les branches d'Eugenia que son doigt spécialisé lui est utile.
 C'est le seul primate à posséder 18 dents. En effet, les espèces du sous-ordre des strepsirrhini, dont l'aye-aye fait partie, possèdent généralement 36 dents (2 incisives, 1 canine, 3 prémolaires et 3 molaires par demi-mâchoire). Le Daubentonia est une exception et on assiste à une oligodontie (réduction importante du nombre de dents). En effet, celui-ci a perdu: 4 incisives, les 4 canines, et 10 prémolaires (4 au niveau de l'arcade supérieure, et 6 au niveau de l'arcade inférieure). Le Daubentonia ne présente plus de canine, ni de prémolaire au niveau de l'arcade dentaire inférieure.
 L'aye-aye est un animal en général solitaire et nocturne, discret et difficile à observer.
-Il construit des nids de feuilles généralement de forme ovoïde avec un trou d'une quinzaine de centimètres de diamètre dans les badamiers (Terminalia sp.), les hintsinas (Afzelia bijuga),les copaliers (Trachylobium verucosum), les manguiers, les litchis et les cocotiers, souvent très haut entre 10 et 15 m au-dessus du sol. Il possède fréquemment de deux à cinq nids[3].
+Il construit des nids de feuilles généralement de forme ovoïde avec un trou d'une quinzaine de centimètres de diamètre dans les badamiers (Terminalia sp.), les hintsinas (Afzelia bijuga),les copaliers (Trachylobium verucosum), les manguiers, les litchis et les cocotiers, souvent très haut entre 10 et 15 m au-dessus du sol. Il possède fréquemment de deux à cinq nids.
 La gestation de la femelle aye-aye est de 166 jours. Après sa naissance il doit rester environ un an avec sa mère.
 </t>
         </is>
@@ -549,13 +563,12 @@
           <t>Découverte, classification et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'aye-aye a été décrit pour la première fois par Pierre Sonnerat dans son Voyage aux Indes orientales et à la Chine, publié en 1782. Le naturaliste allemand Johann Friedrich Gmelin le nomme Sciurus madagascariensis et le place donc parmi les écureuils (genre Sciurus). En 1795, Étienne Geoffroy Saint-Hilaire propose de lui créer un genre particulier, qu'il nomme Daubentonia, en l'honneur de son mentor Louis Jean-Marie Daubenton. Georges Cuvier, pour qui l'aye-aye est un rongeur, renomme le genre en Cheiromys avec l'accord de Geoffroy, car « l'usage de donner des noms d'homme n'est point reçu en zoologie comme en botanique »[4].
-Phylogénie
-Phylogénie des infra-ordres actuels de primates, d'après Perelman et al. (2011)[5] :
-Sous-espèce
-†Aye-Aye géant (Daubentonia madagascariensis robusta)</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aye-aye a été décrit pour la première fois par Pierre Sonnerat dans son Voyage aux Indes orientales et à la Chine, publié en 1782. Le naturaliste allemand Johann Friedrich Gmelin le nomme Sciurus madagascariensis et le place donc parmi les écureuils (genre Sciurus). En 1795, Étienne Geoffroy Saint-Hilaire propose de lui créer un genre particulier, qu'il nomme Daubentonia, en l'honneur de son mentor Louis Jean-Marie Daubenton. Georges Cuvier, pour qui l'aye-aye est un rongeur, renomme le genre en Cheiromys avec l'accord de Geoffroy, car « l'usage de donner des noms d'homme n'est point reçu en zoologie comme en botanique ».
+</t>
         </is>
       </c>
     </row>
@@ -580,13 +593,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Découverte, classification et taxinomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Il vit dans la forêt de Madagascar et dans les cavernes à flanc de montagnes.</t>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des infra-ordres actuels de primates, d'après Perelman et al. (2011) :
+</t>
         </is>
       </c>
     </row>
@@ -611,13 +630,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>L'aye-aye dans la culture malgache</t>
+          <t>Découverte, classification et taxinomie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daubentonia madagascariensis, appelé communément aye-aye par les populations locales, tient une place très particulière dans le bestiaire malgache. De multiples légendes courent sur cet animal aux mœurs nocturnes. Si le nombre d'individus a chuté au cours des dernières décennies, en revanche le mythe de l'animal maléfique s'est conservé, transmis de génération en génération. On  considère ainsi qu'il porte malheur s'il apparaît dans ou aux abords des habitations et qu'il possède des pouvoirs de sorcellerie grâce à son majeur démesuré, dont se servent les devins.
-</t>
+          <t>Sous-espèce</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>†Aye-Aye géant (Daubentonia madagascariensis robusta)</t>
         </is>
       </c>
     </row>
@@ -642,13 +666,81 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Il vit dans la forêt de Madagascar et dans les cavernes à flanc de montagnes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aye-aye</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aye-aye</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>L'aye-aye dans la culture malgache</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daubentonia madagascariensis, appelé communément aye-aye par les populations locales, tient une place très particulière dans le bestiaire malgache. De multiples légendes courent sur cet animal aux mœurs nocturnes. Si le nombre d'individus a chuté au cours des dernières décennies, en revanche le mythe de l'animal maléfique s'est conservé, transmis de génération en génération. On  considère ainsi qu'il porte malheur s'il apparaît dans ou aux abords des habitations et qu'il possède des pouvoirs de sorcellerie grâce à son majeur démesuré, dont se servent les devins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aye-aye</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aye-aye</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>L'aye-aye dans la culture internationale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aye-aye est principalement présent dans les films d'animation Madagascar et Rango.
-La franchise de jeux vidéos Pokémon lui a aussi dédié une de ses créatures, « Tag-Tag » (9e génération)[6].
+La franchise de jeux vidéos Pokémon lui a aussi dédié une de ses créatures, « Tag-Tag » (9e génération).
 </t>
         </is>
       </c>
